--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Proc-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Proc-Thbd.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Proc</t>
+  </si>
+  <si>
+    <t>Thbd</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Thbd</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -534,7 +534,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H2">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.3131355</v>
+        <v>43.1011505</v>
       </c>
       <c r="N2">
-        <v>88.626271</v>
+        <v>86.20230100000001</v>
       </c>
       <c r="O2">
-        <v>0.3703811871594727</v>
+        <v>0.4013145655884081</v>
       </c>
       <c r="P2">
-        <v>0.2883888216544467</v>
+        <v>0.3190709442524837</v>
       </c>
       <c r="Q2">
-        <v>6.52349177292925</v>
+        <v>10.409100250352</v>
       </c>
       <c r="R2">
-        <v>26.093967091717</v>
+        <v>41.636401001408</v>
       </c>
       <c r="S2">
-        <v>0.3703811871594727</v>
+        <v>0.4013145655884081</v>
       </c>
       <c r="T2">
-        <v>0.2883888216544467</v>
+        <v>0.3190709442524837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H3">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>44.872277</v>
       </c>
       <c r="O3">
-        <v>0.1250182144134117</v>
+        <v>0.1392685047639097</v>
       </c>
       <c r="P3">
-        <v>0.1460138505543343</v>
+        <v>0.1660911556542906</v>
       </c>
       <c r="Q3">
-        <v>2.201934983379833</v>
+        <v>3.612278128202667</v>
       </c>
       <c r="R3">
-        <v>13.211609900279</v>
+        <v>21.673668769216</v>
       </c>
       <c r="S3">
-        <v>0.1250182144134117</v>
+        <v>0.1392685047639097</v>
       </c>
       <c r="T3">
-        <v>0.1460138505543343</v>
+        <v>0.1660911556542906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H4">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.891776</v>
+        <v>21.215307</v>
       </c>
       <c r="N4">
-        <v>44.675328</v>
+        <v>63.645921</v>
       </c>
       <c r="O4">
-        <v>0.124469496720514</v>
+        <v>0.197535602037577</v>
       </c>
       <c r="P4">
-        <v>0.1453729808731985</v>
+        <v>0.2355803020999286</v>
       </c>
       <c r="Q4">
-        <v>2.192270466176</v>
+        <v>5.123581501727999</v>
       </c>
       <c r="R4">
-        <v>13.153622797056</v>
+        <v>30.741489010368</v>
       </c>
       <c r="S4">
-        <v>0.124469496720514</v>
+        <v>0.197535602037577</v>
       </c>
       <c r="T4">
-        <v>0.1453729808731985</v>
+        <v>0.2355803020999286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H5">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.297570499999999</v>
+        <v>8.932031500000001</v>
       </c>
       <c r="N5">
-        <v>14.595141</v>
+        <v>17.864063</v>
       </c>
       <c r="O5">
-        <v>0.06099507052869112</v>
+        <v>0.08316609416828624</v>
       </c>
       <c r="P5">
-        <v>0.04749241356290961</v>
+        <v>0.06612240489492104</v>
       </c>
       <c r="Q5">
-        <v>1.07430089480175</v>
+        <v>2.157121335376</v>
       </c>
       <c r="R5">
-        <v>4.297203579206999</v>
+        <v>8.628485341504001</v>
       </c>
       <c r="S5">
-        <v>0.06099507052869112</v>
+        <v>0.08316609416828624</v>
       </c>
       <c r="T5">
-        <v>0.04749241356290961</v>
+        <v>0.06612240489492104</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H6">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.34831033333333</v>
+        <v>7.405844333333333</v>
       </c>
       <c r="N6">
-        <v>88.04493099999999</v>
+        <v>22.217533</v>
       </c>
       <c r="O6">
-        <v>0.2453011257211672</v>
+        <v>0.06895577419556446</v>
       </c>
       <c r="P6">
-        <v>0.2864971482748841</v>
+        <v>0.0822364269982853</v>
       </c>
       <c r="Q6">
-        <v>4.320467483256166</v>
+        <v>1.788541029877333</v>
       </c>
       <c r="R6">
-        <v>25.922804899537</v>
+        <v>10.731246179264</v>
       </c>
       <c r="S6">
-        <v>0.2453011257211672</v>
+        <v>0.06895577419556446</v>
       </c>
       <c r="T6">
-        <v>0.2864971482748841</v>
+        <v>0.0822364269982853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H7">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.833753666666667</v>
+        <v>11.78815666666667</v>
       </c>
       <c r="N7">
-        <v>26.501261</v>
+        <v>35.36447</v>
       </c>
       <c r="O7">
-        <v>0.07383490545674307</v>
+        <v>0.1097594592462545</v>
       </c>
       <c r="P7">
-        <v>0.08623478508022686</v>
+        <v>0.1308987661000909</v>
       </c>
       <c r="Q7">
-        <v>1.300447795407833</v>
+        <v>2.846886987626667</v>
       </c>
       <c r="R7">
-        <v>7.802686772446999</v>
+        <v>17.08132192576</v>
       </c>
       <c r="S7">
-        <v>0.07383490545674307</v>
+        <v>0.1097594592462545</v>
       </c>
       <c r="T7">
-        <v>0.08623478508022686</v>
+        <v>0.1308987661000909</v>
       </c>
     </row>
   </sheetData>
